--- a/Sieve Analysis-V8.xlsx
+++ b/Sieve Analysis-V8.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BRTC\1_MY EXCEL FORMAT\3_Sieve Analysis_Wet_Dry\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdnas\Desktop\ANN excel Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B44AFFF3-ACA8-44D1-99EE-5A5AF3D277B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84EC5EB9-948B-4D35-850E-7426DC86AE9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="19" r:id="rId1"/>
     <sheet name="Report" sheetId="21" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Report!$A$1:$G$52</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Report!$A$1:$I$52</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,14 +35,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -1456,18 +1456,121 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1480,107 +1583,41 @@
     <xf numFmtId="164" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="47" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1603,9 +1640,6 @@
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1645,40 +1679,6 @@
     <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="47" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2384,7 +2384,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="95250" y="0"/>
-          <a:ext cx="5819775" cy="1257300"/>
+          <a:ext cx="6064250" cy="1250950"/>
           <a:chOff x="95250" y="0"/>
           <a:chExt cx="5819775" cy="1257300"/>
         </a:xfrm>
@@ -2824,73 +2824,73 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y40"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J11" sqref="J11:P11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" customWidth="1"/>
-    <col min="2" max="2" width="2.140625" customWidth="1"/>
-    <col min="3" max="7" width="15.7109375" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" customWidth="1"/>
-    <col min="9" max="9" width="3.85546875" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="20.28515625" customWidth="1"/>
-    <col min="15" max="15" width="20.42578125" customWidth="1"/>
-    <col min="16" max="16" width="20.140625" customWidth="1"/>
-    <col min="17" max="17" width="20.85546875" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" customWidth="1"/>
-    <col min="20" max="20" width="15.85546875" customWidth="1"/>
-    <col min="21" max="21" width="16.42578125" customWidth="1"/>
-    <col min="22" max="23" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.453125" customWidth="1"/>
+    <col min="2" max="2" width="2.1796875" customWidth="1"/>
+    <col min="3" max="7" width="15.7265625" customWidth="1"/>
+    <col min="8" max="8" width="9.7265625" customWidth="1"/>
+    <col min="9" max="9" width="3.81640625" customWidth="1"/>
+    <col min="10" max="10" width="9.7265625" customWidth="1"/>
+    <col min="11" max="11" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="20.26953125" customWidth="1"/>
+    <col min="15" max="15" width="20.453125" customWidth="1"/>
+    <col min="16" max="16" width="20.1796875" customWidth="1"/>
+    <col min="17" max="17" width="20.81640625" customWidth="1"/>
+    <col min="18" max="18" width="14.7265625" customWidth="1"/>
+    <col min="19" max="19" width="14.453125" customWidth="1"/>
+    <col min="20" max="20" width="15.81640625" customWidth="1"/>
+    <col min="21" max="21" width="16.453125" customWidth="1"/>
+    <col min="22" max="23" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="176"/>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
+    <row r="1" spans="1:16" ht="20" x14ac:dyDescent="0.3">
+      <c r="A1" s="165"/>
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="176"/>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
+    <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="165"/>
+      <c r="B2" s="165"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="165"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="177"/>
-      <c r="B3" s="177"/>
-      <c r="C3" s="177"/>
-      <c r="D3" s="177"/>
-      <c r="E3" s="177"/>
-      <c r="F3" s="177"/>
-      <c r="G3" s="177"/>
+    <row r="3" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="166"/>
+      <c r="B3" s="166"/>
+      <c r="C3" s="166"/>
+      <c r="D3" s="166"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="166"/>
+      <c r="G3" s="166"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="178"/>
-      <c r="B4" s="178"/>
-      <c r="C4" s="178"/>
-      <c r="D4" s="178"/>
-      <c r="E4" s="178"/>
-      <c r="F4" s="178"/>
-      <c r="G4" s="178"/>
+    <row r="4" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="167"/>
+      <c r="B4" s="167"/>
+      <c r="C4" s="167"/>
+      <c r="D4" s="167"/>
+      <c r="E4" s="167"/>
+      <c r="F4" s="167"/>
+      <c r="G4" s="167"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:16" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="10.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="6"/>
@@ -2900,7 +2900,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:16" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="6"/>
@@ -2910,29 +2910,29 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:16" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="179" t="s">
+    <row r="7" spans="1:16" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="168" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
+      <c r="B7" s="168"/>
+      <c r="C7" s="168"/>
+      <c r="D7" s="168"/>
+      <c r="E7" s="168"/>
+      <c r="F7" s="168"/>
+      <c r="G7" s="168"/>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
         <v>33</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="183" t="s">
+      <c r="C8" s="157" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="183"/>
+      <c r="D8" s="157"/>
       <c r="E8" s="6"/>
       <c r="F8" s="40" t="s">
         <v>26</v>
@@ -2950,31 +2950,31 @@
       <c r="O8" s="48"/>
       <c r="P8" s="50"/>
     </row>
-    <row r="9" spans="1:16" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" ht="28.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="59" t="s">
         <v>34</v>
       </c>
       <c r="B9" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="184" t="s">
+      <c r="C9" s="158" t="s">
         <v>77</v>
       </c>
-      <c r="D9" s="184"/>
-      <c r="E9" s="184"/>
-      <c r="F9" s="184"/>
-      <c r="G9" s="184"/>
+      <c r="D9" s="158"/>
+      <c r="E9" s="158"/>
+      <c r="F9" s="158"/>
+      <c r="G9" s="158"/>
       <c r="H9" s="51"/>
       <c r="I9" s="51"/>
-      <c r="J9" s="185"/>
-      <c r="K9" s="185"/>
-      <c r="L9" s="185"/>
-      <c r="M9" s="185"/>
-      <c r="N9" s="185"/>
-      <c r="O9" s="185"/>
-      <c r="P9" s="185"/>
-    </row>
-    <row r="10" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J9" s="159"/>
+      <c r="K9" s="159"/>
+      <c r="L9" s="159"/>
+      <c r="M9" s="159"/>
+      <c r="N9" s="159"/>
+      <c r="O9" s="159"/>
+      <c r="P9" s="159"/>
+    </row>
+    <row r="10" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>35</v>
       </c>
@@ -3002,29 +3002,29 @@
       <c r="O10" s="48"/>
       <c r="P10" s="50"/>
     </row>
-    <row r="11" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="186" t="s">
+      <c r="C11" s="160" t="s">
         <v>78</v>
       </c>
-      <c r="D11" s="186"/>
-      <c r="E11" s="186"/>
-      <c r="F11" s="186"/>
-      <c r="G11" s="186"/>
+      <c r="D11" s="160"/>
+      <c r="E11" s="160"/>
+      <c r="F11" s="160"/>
+      <c r="G11" s="160"/>
       <c r="H11" s="52"/>
       <c r="I11" s="53"/>
-      <c r="J11" s="187"/>
-      <c r="K11" s="187"/>
-      <c r="L11" s="187"/>
-      <c r="M11" s="187"/>
-      <c r="N11" s="187"/>
-      <c r="O11" s="187"/>
-      <c r="P11" s="187"/>
+      <c r="J11" s="161"/>
+      <c r="K11" s="161"/>
+      <c r="L11" s="161"/>
+      <c r="M11" s="161"/>
+      <c r="N11" s="161"/>
+      <c r="O11" s="161"/>
+      <c r="P11" s="161"/>
     </row>
     <row r="12" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
@@ -3040,38 +3040,38 @@
       <c r="E12" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="160" t="s">
+      <c r="F12" s="162" t="s">
         <v>62</v>
       </c>
-      <c r="G12" s="161"/>
+      <c r="G12" s="163"/>
       <c r="H12" s="45"/>
       <c r="I12" s="45"/>
-      <c r="J12" s="188"/>
-      <c r="K12" s="188"/>
-      <c r="L12" s="188"/>
-      <c r="M12" s="188"/>
-      <c r="N12" s="188"/>
-      <c r="O12" s="188"/>
-      <c r="P12" s="188"/>
+      <c r="J12" s="164"/>
+      <c r="K12" s="164"/>
+      <c r="L12" s="164"/>
+      <c r="M12" s="164"/>
+      <c r="N12" s="164"/>
+      <c r="O12" s="164"/>
+      <c r="P12" s="164"/>
     </row>
     <row r="13" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="174" t="s">
+      <c r="A13" s="185" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="174" t="s">
+      <c r="B13" s="185" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="175" t="s">
+      <c r="C13" s="186" t="s">
         <v>80</v>
       </c>
-      <c r="D13" s="175"/>
+      <c r="D13" s="186"/>
       <c r="E13" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="158" t="s">
+      <c r="F13" s="171" t="s">
         <v>81</v>
       </c>
-      <c r="G13" s="159"/>
+      <c r="G13" s="172"/>
       <c r="H13" s="45"/>
       <c r="I13" s="45"/>
       <c r="J13" s="54"/>
@@ -3083,17 +3083,17 @@
       <c r="P13" s="61"/>
     </row>
     <row r="14" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="174"/>
-      <c r="B14" s="174"/>
-      <c r="C14" s="175"/>
-      <c r="D14" s="175"/>
+      <c r="A14" s="185"/>
+      <c r="B14" s="185"/>
+      <c r="C14" s="186"/>
+      <c r="D14" s="186"/>
       <c r="E14" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="160" t="s">
+      <c r="F14" s="162" t="s">
         <v>79</v>
       </c>
-      <c r="G14" s="161"/>
+      <c r="G14" s="163"/>
       <c r="H14" s="45"/>
       <c r="I14" s="45"/>
       <c r="J14" s="56"/>
@@ -3104,7 +3104,7 @@
       <c r="O14" s="48"/>
       <c r="P14" s="48"/>
     </row>
-    <row r="15" spans="1:16" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="8" t="s">
         <v>5</v>
       </c>
@@ -3118,10 +3118,10 @@
       <c r="E15" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="F15" s="162" t="s">
+      <c r="F15" s="173" t="s">
         <v>76</v>
       </c>
-      <c r="G15" s="162"/>
+      <c r="G15" s="173"/>
       <c r="H15" s="45"/>
       <c r="I15" s="45"/>
       <c r="J15" s="50"/>
@@ -3133,15 +3133,15 @@
       <c r="P15" s="48"/>
     </row>
     <row r="16" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="163" t="s">
+      <c r="A16" s="174" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="164"/>
-      <c r="C16" s="164"/>
-      <c r="D16" s="164"/>
-      <c r="E16" s="164"/>
-      <c r="F16" s="164"/>
-      <c r="G16" s="165"/>
+      <c r="B16" s="175"/>
+      <c r="C16" s="175"/>
+      <c r="D16" s="175"/>
+      <c r="E16" s="175"/>
+      <c r="F16" s="175"/>
+      <c r="G16" s="176"/>
       <c r="H16" s="12"/>
     </row>
     <row r="17" spans="1:25" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3154,11 +3154,11 @@
       <c r="G17" s="15"/>
       <c r="H17" s="16"/>
     </row>
-    <row r="18" spans="1:25" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="166" t="s">
+    <row r="18" spans="1:25" ht="14.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="177" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="167"/>
+      <c r="B18" s="178"/>
       <c r="C18" s="17" t="s">
         <v>8</v>
       </c>
@@ -3175,11 +3175,11 @@
       <c r="H18" s="20"/>
       <c r="I18" s="21"/>
     </row>
-    <row r="19" spans="1:25" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="168" t="s">
+    <row r="19" spans="1:25" ht="14.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="179" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="169"/>
+      <c r="B19" s="180"/>
       <c r="C19" s="22" t="s">
         <v>13</v>
       </c>
@@ -3197,17 +3197,17 @@
       </c>
       <c r="H19" s="20"/>
       <c r="I19" s="21"/>
-      <c r="M19" s="180" t="s">
+      <c r="M19" s="154" t="s">
         <v>64</v>
       </c>
-      <c r="N19" s="181"/>
-      <c r="O19" s="182"/>
-    </row>
-    <row r="20" spans="1:25" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="170" t="s">
+      <c r="N19" s="155"/>
+      <c r="O19" s="156"/>
+    </row>
+    <row r="20" spans="1:25" ht="14.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="181" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="171"/>
+      <c r="B20" s="182"/>
       <c r="C20" s="25" t="s">
         <v>18</v>
       </c>
@@ -3240,18 +3240,18 @@
       <c r="O20" s="105" t="s">
         <v>46</v>
       </c>
-      <c r="P20" s="190" t="s">
+      <c r="P20" s="152" t="s">
         <v>51</v>
       </c>
-      <c r="Q20" s="191"/>
-      <c r="R20" s="190" t="s">
+      <c r="Q20" s="153"/>
+      <c r="R20" s="152" t="s">
         <v>52</v>
       </c>
-      <c r="S20" s="191"/>
-      <c r="T20" s="190" t="s">
+      <c r="S20" s="153"/>
+      <c r="T20" s="152" t="s">
         <v>53</v>
       </c>
-      <c r="U20" s="191"/>
+      <c r="U20" s="153"/>
       <c r="V20" s="98" t="s">
         <v>47</v>
       </c>
@@ -3265,11 +3265,11 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="172">
+    <row r="21" spans="1:25" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="183">
         <v>4.75</v>
       </c>
-      <c r="B21" s="173"/>
+      <c r="B21" s="184"/>
       <c r="C21" s="43">
         <v>0</v>
       </c>
@@ -3315,11 +3315,11 @@
       <c r="X21" s="102"/>
       <c r="Y21" s="102"/>
     </row>
-    <row r="22" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="152">
+    <row r="22" spans="1:25" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="169">
         <v>2.36</v>
       </c>
-      <c r="B22" s="153"/>
+      <c r="B22" s="170"/>
       <c r="C22" s="44">
         <v>0</v>
       </c>
@@ -3382,11 +3382,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="152">
+    <row r="23" spans="1:25" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="169">
         <v>1.18</v>
       </c>
-      <c r="B23" s="153"/>
+      <c r="B23" s="170"/>
       <c r="C23" s="44">
         <v>0</v>
       </c>
@@ -3467,11 +3467,11 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="152">
+    <row r="24" spans="1:25" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="169">
         <v>0.6</v>
       </c>
-      <c r="B24" s="153"/>
+      <c r="B24" s="170"/>
       <c r="C24" s="44">
         <v>0</v>
       </c>
@@ -3552,11 +3552,11 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="152">
+    <row r="25" spans="1:25" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="169">
         <v>0.3</v>
       </c>
-      <c r="B25" s="153"/>
+      <c r="B25" s="170"/>
       <c r="C25" s="44">
         <v>5</v>
       </c>
@@ -3619,11 +3619,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="152">
+    <row r="26" spans="1:25" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="169">
         <v>0.15</v>
       </c>
-      <c r="B26" s="153"/>
+      <c r="B26" s="170"/>
       <c r="C26" s="44">
         <v>48.8</v>
       </c>
@@ -3704,11 +3704,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="154">
+    <row r="27" spans="1:25" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="189">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="B27" s="155"/>
+      <c r="B27" s="190"/>
       <c r="C27" s="44">
         <v>36.799999999999997</v>
       </c>
@@ -3786,11 +3786,11 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="154" t="s">
+    <row r="28" spans="1:25" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="189" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="155"/>
+      <c r="B28" s="190"/>
       <c r="C28" s="44">
         <v>9.4</v>
       </c>
@@ -3824,11 +3824,11 @@
       <c r="X28" s="102"/>
       <c r="Y28" s="104"/>
     </row>
-    <row r="29" spans="1:25" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="156" t="s">
+    <row r="29" spans="1:25" ht="14.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="191" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="157"/>
+      <c r="B29" s="192"/>
       <c r="C29" s="91">
         <f>IF(SUM(C21:C28)=100,100,"Not OK")</f>
         <v>100</v>
@@ -3840,11 +3840,11 @@
       <c r="H29" s="29"/>
       <c r="I29" s="21"/>
     </row>
-    <row r="30" spans="1:25" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="150" t="s">
+    <row r="30" spans="1:25" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="187" t="s">
         <v>66</v>
       </c>
-      <c r="B30" s="150"/>
+      <c r="B30" s="187"/>
       <c r="C30" s="136" t="str">
         <f>IF(Q31="","---",Q31&amp;" mm")</f>
         <v>0.076 mm</v>
@@ -3863,14 +3863,14 @@
       <c r="L30" s="107" t="s">
         <v>56</v>
       </c>
-      <c r="M30" s="189" t="s">
+      <c r="M30" s="151" t="s">
         <v>57</v>
       </c>
-      <c r="N30" s="189"/>
-      <c r="O30" s="189" t="s">
+      <c r="N30" s="151"/>
+      <c r="O30" s="151" t="s">
         <v>58</v>
       </c>
-      <c r="P30" s="189"/>
+      <c r="P30" s="151"/>
       <c r="Q30" s="133" t="s">
         <v>59</v>
       </c>
@@ -3881,11 +3881,11 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="151" t="s">
+    <row r="31" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="188" t="s">
         <v>67</v>
       </c>
-      <c r="B31" s="151"/>
+      <c r="B31" s="188"/>
       <c r="C31" s="140" t="str">
         <f>IF(Q32="","---",Q32&amp;" mm")</f>
         <v>0.111 mm</v>
@@ -3929,7 +3929,7 @@
       <c r="W31" s="63"/>
       <c r="X31" s="63"/>
     </row>
-    <row r="32" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" ht="14" x14ac:dyDescent="0.3">
       <c r="A32" s="37" t="s">
         <v>24</v>
       </c>
@@ -4011,7 +4011,7 @@
       <c r="W33" s="63"/>
       <c r="X33" s="63"/>
     </row>
-    <row r="34" spans="1:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C34" s="36"/>
       <c r="D34" s="36"/>
       <c r="F34" s="36"/>
@@ -4044,7 +4044,7 @@
       <c r="W34" s="63"/>
       <c r="X34" s="63"/>
     </row>
-    <row r="35" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="36"/>
       <c r="B35" s="36"/>
       <c r="C35" s="36"/>
@@ -4084,7 +4084,7 @@
       <c r="W37" s="63"/>
       <c r="X37" s="63"/>
     </row>
-    <row r="38" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A38" s="95" t="s">
         <v>30</v>
       </c>
@@ -4098,7 +4098,7 @@
       <c r="W38" s="63"/>
       <c r="X38" s="63"/>
     </row>
-    <row r="39" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A39" s="95" t="s">
         <v>31</v>
       </c>
@@ -4112,30 +4112,19 @@
       <c r="W39" s="63"/>
       <c r="X39" s="63"/>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
       <c r="W40" s="63"/>
       <c r="X40" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="F14:G14"/>
@@ -4150,13 +4139,24 @@
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="C13:D14"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="T20:U20"/>
   </mergeCells>
   <pageMargins left="1.1000000000000001" right="0.75" top="0.45" bottom="0.5" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="91" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -4172,64 +4172,64 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11:P11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" style="63" customWidth="1"/>
-    <col min="2" max="2" width="2.140625" style="63" customWidth="1"/>
-    <col min="3" max="7" width="15.7109375" style="63" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" style="63" customWidth="1"/>
-    <col min="9" max="9" width="3.85546875" style="63" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" style="63" customWidth="1"/>
-    <col min="11" max="15" width="8.7109375" style="63"/>
-    <col min="16" max="16" width="12.140625" style="63" customWidth="1"/>
-    <col min="17" max="16384" width="8.7109375" style="63"/>
+    <col min="1" max="1" width="9.453125" style="63" customWidth="1"/>
+    <col min="2" max="2" width="2.1796875" style="63" customWidth="1"/>
+    <col min="3" max="7" width="15.7265625" style="63" customWidth="1"/>
+    <col min="8" max="8" width="9.7265625" style="63" customWidth="1"/>
+    <col min="9" max="9" width="3.81640625" style="63" customWidth="1"/>
+    <col min="10" max="10" width="9.7265625" style="63" customWidth="1"/>
+    <col min="11" max="15" width="8.7265625" style="63"/>
+    <col min="16" max="16" width="12.1796875" style="63" customWidth="1"/>
+    <col min="17" max="16384" width="8.7265625" style="63"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="195"/>
-      <c r="B1" s="195"/>
-      <c r="C1" s="195"/>
-      <c r="D1" s="195"/>
-      <c r="E1" s="195"/>
-      <c r="F1" s="195"/>
-      <c r="G1" s="195"/>
+    <row r="1" spans="1:16" ht="20" x14ac:dyDescent="0.3">
+      <c r="A1" s="208"/>
+      <c r="B1" s="208"/>
+      <c r="C1" s="208"/>
+      <c r="D1" s="208"/>
+      <c r="E1" s="208"/>
+      <c r="F1" s="208"/>
+      <c r="G1" s="208"/>
       <c r="H1" s="62"/>
     </row>
-    <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="195"/>
-      <c r="B2" s="195"/>
-      <c r="C2" s="195"/>
-      <c r="D2" s="195"/>
-      <c r="E2" s="195"/>
-      <c r="F2" s="195"/>
-      <c r="G2" s="195"/>
+    <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="208"/>
+      <c r="B2" s="208"/>
+      <c r="C2" s="208"/>
+      <c r="D2" s="208"/>
+      <c r="E2" s="208"/>
+      <c r="F2" s="208"/>
+      <c r="G2" s="208"/>
       <c r="H2" s="62"/>
     </row>
-    <row r="3" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="196"/>
-      <c r="B3" s="196"/>
-      <c r="C3" s="196"/>
-      <c r="D3" s="196"/>
-      <c r="E3" s="196"/>
-      <c r="F3" s="196"/>
-      <c r="G3" s="196"/>
+    <row r="3" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="209"/>
+      <c r="B3" s="209"/>
+      <c r="C3" s="209"/>
+      <c r="D3" s="209"/>
+      <c r="E3" s="209"/>
+      <c r="F3" s="209"/>
+      <c r="G3" s="209"/>
       <c r="H3" s="64"/>
     </row>
-    <row r="4" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="197"/>
-      <c r="B4" s="197"/>
-      <c r="C4" s="197"/>
-      <c r="D4" s="197"/>
-      <c r="E4" s="197"/>
-      <c r="F4" s="197"/>
-      <c r="G4" s="197"/>
+    <row r="4" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="210"/>
+      <c r="B4" s="210"/>
+      <c r="C4" s="210"/>
+      <c r="D4" s="210"/>
+      <c r="E4" s="210"/>
+      <c r="F4" s="210"/>
+      <c r="G4" s="210"/>
       <c r="H4" s="65"/>
     </row>
-    <row r="5" spans="1:16" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="10.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="66"/>
       <c r="B5" s="66"/>
       <c r="C5" s="47"/>
@@ -4239,7 +4239,7 @@
       <c r="G5" s="48"/>
       <c r="H5" s="48"/>
     </row>
-    <row r="6" spans="1:16" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="66"/>
       <c r="B6" s="66"/>
       <c r="C6" s="47"/>
@@ -4249,35 +4249,35 @@
       <c r="G6" s="48"/>
       <c r="H6" s="48"/>
     </row>
-    <row r="7" spans="1:16" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="198" t="s">
+    <row r="7" spans="1:16" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="211" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="198"/>
-      <c r="C7" s="198"/>
-      <c r="D7" s="198"/>
-      <c r="E7" s="198"/>
-      <c r="F7" s="198"/>
-      <c r="G7" s="198"/>
+      <c r="B7" s="211"/>
+      <c r="C7" s="211"/>
+      <c r="D7" s="211"/>
+      <c r="E7" s="211"/>
+      <c r="F7" s="211"/>
+      <c r="G7" s="211"/>
       <c r="H7" s="67"/>
     </row>
-    <row r="8" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="45" t="s">
         <v>33</v>
       </c>
       <c r="B8" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="194" t="str">
+      <c r="C8" s="207" t="str">
         <f>Input!C8:D8</f>
         <v>1102-30385/CE/20-21</v>
       </c>
-      <c r="D8" s="194"/>
+      <c r="D8" s="207"/>
       <c r="E8" s="47"/>
       <c r="F8" s="124" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="224" t="str">
+      <c r="G8" s="150" t="str">
         <f>Input!G8</f>
         <v>27/02/2021</v>
       </c>
@@ -4291,32 +4291,32 @@
       <c r="O8" s="49"/>
       <c r="P8" s="50"/>
     </row>
-    <row r="9" spans="1:16" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" ht="28.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="68" t="s">
         <v>34</v>
       </c>
       <c r="B9" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="199" t="str">
+      <c r="C9" s="203" t="str">
         <f>Input!C9:G9</f>
         <v>Engr. Md. Shariful Islam Sarkar, DGM, Engineering, Windy Group. Contact No. : 01719250739</v>
       </c>
-      <c r="D9" s="199"/>
-      <c r="E9" s="199"/>
-      <c r="F9" s="199"/>
-      <c r="G9" s="199"/>
+      <c r="D9" s="203"/>
+      <c r="E9" s="203"/>
+      <c r="F9" s="203"/>
+      <c r="G9" s="203"/>
       <c r="H9" s="51"/>
       <c r="I9" s="51"/>
-      <c r="J9" s="185"/>
-      <c r="K9" s="185"/>
-      <c r="L9" s="185"/>
-      <c r="M9" s="185"/>
-      <c r="N9" s="185"/>
-      <c r="O9" s="185"/>
-      <c r="P9" s="185"/>
-    </row>
-    <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J9" s="159"/>
+      <c r="K9" s="159"/>
+      <c r="L9" s="159"/>
+      <c r="M9" s="159"/>
+      <c r="N9" s="159"/>
+      <c r="O9" s="159"/>
+      <c r="P9" s="159"/>
+    </row>
+    <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="45" t="s">
         <v>35</v>
       </c>
@@ -4346,30 +4346,30 @@
       <c r="O10" s="49"/>
       <c r="P10" s="50"/>
     </row>
-    <row r="11" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="53" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="213" t="str">
+      <c r="C11" s="204" t="str">
         <f>Input!C11:G11</f>
         <v xml:space="preserve">Construction of Nine Storied Factory Building at Union Sportswear Ltd.; Project Address: 116, Morkun Link Road, Pagar Society Math, Tongi, Gazipur. </v>
       </c>
-      <c r="D11" s="213"/>
-      <c r="E11" s="213"/>
-      <c r="F11" s="213"/>
-      <c r="G11" s="213"/>
+      <c r="D11" s="204"/>
+      <c r="E11" s="204"/>
+      <c r="F11" s="204"/>
+      <c r="G11" s="204"/>
       <c r="H11" s="52"/>
       <c r="I11" s="53"/>
-      <c r="J11" s="187"/>
-      <c r="K11" s="187"/>
-      <c r="L11" s="187"/>
-      <c r="M11" s="187"/>
-      <c r="N11" s="187"/>
-      <c r="O11" s="187"/>
-      <c r="P11" s="187"/>
+      <c r="J11" s="161"/>
+      <c r="K11" s="161"/>
+      <c r="L11" s="161"/>
+      <c r="M11" s="161"/>
+      <c r="N11" s="161"/>
+      <c r="O11" s="161"/>
+      <c r="P11" s="161"/>
     </row>
     <row r="12" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="45" t="s">
@@ -4386,41 +4386,41 @@
       <c r="E12" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="214" t="str">
+      <c r="F12" s="196" t="str">
         <f>Input!F12:G12</f>
         <v>---</v>
       </c>
-      <c r="G12" s="214"/>
+      <c r="G12" s="196"/>
       <c r="H12" s="45"/>
       <c r="I12" s="45"/>
-      <c r="J12" s="188"/>
-      <c r="K12" s="188"/>
-      <c r="L12" s="188"/>
-      <c r="M12" s="188"/>
-      <c r="N12" s="188"/>
-      <c r="O12" s="188"/>
-      <c r="P12" s="188"/>
+      <c r="J12" s="164"/>
+      <c r="K12" s="164"/>
+      <c r="L12" s="164"/>
+      <c r="M12" s="164"/>
+      <c r="N12" s="164"/>
+      <c r="O12" s="164"/>
+      <c r="P12" s="164"/>
     </row>
     <row r="13" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="220" t="s">
+      <c r="A13" s="201" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="221" t="s">
+      <c r="B13" s="202" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="199" t="str">
+      <c r="C13" s="203" t="str">
         <f>Input!C13:D14</f>
         <v>ASTM D422, D1140, D6913</v>
       </c>
-      <c r="D13" s="199"/>
+      <c r="D13" s="203"/>
       <c r="E13" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="200" t="str">
+      <c r="F13" s="212" t="str">
         <f>Input!F13:G13</f>
         <v>Mixture of Hole Sample Nos. 03, 08, 09 &amp; 13 (FD Test)</v>
       </c>
-      <c r="G13" s="200"/>
+      <c r="G13" s="212"/>
       <c r="H13" s="45"/>
       <c r="I13" s="45"/>
       <c r="J13" s="54"/>
@@ -4428,22 +4428,22 @@
       <c r="L13" s="47"/>
       <c r="M13" s="47"/>
       <c r="N13" s="55"/>
-      <c r="O13" s="215"/>
-      <c r="P13" s="215"/>
+      <c r="O13" s="195"/>
+      <c r="P13" s="195"/>
     </row>
     <row r="14" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="220"/>
-      <c r="B14" s="221"/>
-      <c r="C14" s="199"/>
-      <c r="D14" s="199"/>
+      <c r="A14" s="201"/>
+      <c r="B14" s="202"/>
+      <c r="C14" s="203"/>
+      <c r="D14" s="203"/>
       <c r="E14" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="214" t="str">
+      <c r="F14" s="196" t="str">
         <f>Input!F14:G14</f>
         <v xml:space="preserve"> 3" - 23" from FGL</v>
       </c>
-      <c r="G14" s="214"/>
+      <c r="G14" s="196"/>
       <c r="H14" s="45"/>
       <c r="I14" s="45"/>
       <c r="J14" s="56"/>
@@ -4454,7 +4454,7 @@
       <c r="O14" s="48"/>
       <c r="P14" s="48"/>
     </row>
-    <row r="15" spans="1:16" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="45" t="s">
         <v>5</v>
       </c>
@@ -4469,11 +4469,11 @@
       <c r="E15" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="F15" s="216" t="str">
+      <c r="F15" s="197" t="str">
         <f>Input!F15:G15</f>
         <v>Gray Silty Fine Sand</v>
       </c>
-      <c r="G15" s="216"/>
+      <c r="G15" s="197"/>
       <c r="H15" s="45"/>
       <c r="I15" s="45"/>
       <c r="J15" s="50"/>
@@ -4485,15 +4485,15 @@
       <c r="P15" s="48"/>
     </row>
     <row r="16" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="217" t="s">
+      <c r="A16" s="198" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="218"/>
-      <c r="C16" s="218"/>
-      <c r="D16" s="218"/>
-      <c r="E16" s="218"/>
-      <c r="F16" s="218"/>
-      <c r="G16" s="219"/>
+      <c r="B16" s="199"/>
+      <c r="C16" s="199"/>
+      <c r="D16" s="199"/>
+      <c r="E16" s="199"/>
+      <c r="F16" s="199"/>
+      <c r="G16" s="200"/>
       <c r="H16" s="70"/>
     </row>
     <row r="17" spans="1:9" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4506,11 +4506,11 @@
       <c r="G17" s="73"/>
       <c r="H17" s="74"/>
     </row>
-    <row r="18" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="201" t="s">
+    <row r="18" spans="1:9" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="213" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="202"/>
+      <c r="B18" s="214"/>
       <c r="C18" s="75" t="s">
         <v>8</v>
       </c>
@@ -4527,11 +4527,11 @@
       <c r="H18" s="20"/>
       <c r="I18" s="78"/>
     </row>
-    <row r="19" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="207" t="s">
+    <row r="19" spans="1:9" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="208"/>
+      <c r="B19" s="220"/>
       <c r="C19" s="79" t="s">
         <v>13</v>
       </c>
@@ -4550,11 +4550,11 @@
       <c r="H19" s="20"/>
       <c r="I19" s="78"/>
     </row>
-    <row r="20" spans="1:9" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="209" t="s">
+    <row r="20" spans="1:9" ht="14.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="221" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="210"/>
+      <c r="B20" s="222"/>
       <c r="C20" s="128" t="s">
         <v>18</v>
       </c>
@@ -4571,11 +4571,11 @@
       <c r="H20" s="78"/>
       <c r="I20" s="78"/>
     </row>
-    <row r="21" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="211">
+    <row r="21" spans="1:9" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="223">
         <v>4.75</v>
       </c>
-      <c r="B21" s="212"/>
+      <c r="B21" s="224"/>
       <c r="C21" s="127">
         <f>MROUND(Input!C21,0.01)</f>
         <v>0</v>
@@ -4599,11 +4599,11 @@
       <c r="H21" s="78"/>
       <c r="I21" s="78"/>
     </row>
-    <row r="22" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="222">
+    <row r="22" spans="1:9" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="193">
         <v>2.36</v>
       </c>
-      <c r="B22" s="223"/>
+      <c r="B22" s="194"/>
       <c r="C22" s="126">
         <f>MROUND(Input!C22,0.01)</f>
         <v>0</v>
@@ -4627,11 +4627,11 @@
       <c r="H22" s="78"/>
       <c r="I22" s="78"/>
     </row>
-    <row r="23" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="222">
+    <row r="23" spans="1:9" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="193">
         <v>1.18</v>
       </c>
-      <c r="B23" s="223"/>
+      <c r="B23" s="194"/>
       <c r="C23" s="126">
         <f>MROUND(Input!C23,0.01)</f>
         <v>0</v>
@@ -4655,11 +4655,11 @@
       <c r="H23" s="78"/>
       <c r="I23" s="78"/>
     </row>
-    <row r="24" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="222">
+    <row r="24" spans="1:9" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="193">
         <v>0.6</v>
       </c>
-      <c r="B24" s="223"/>
+      <c r="B24" s="194"/>
       <c r="C24" s="126">
         <f>MROUND(Input!C24,0.01)</f>
         <v>0</v>
@@ -4683,11 +4683,11 @@
       <c r="H24" s="78"/>
       <c r="I24" s="78"/>
     </row>
-    <row r="25" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="222">
+    <row r="25" spans="1:9" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="193">
         <v>0.3</v>
       </c>
-      <c r="B25" s="223"/>
+      <c r="B25" s="194"/>
       <c r="C25" s="126">
         <f>MROUND(Input!C25,0.01)</f>
         <v>5</v>
@@ -4711,11 +4711,11 @@
       <c r="H25" s="78"/>
       <c r="I25" s="78"/>
     </row>
-    <row r="26" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="222">
+    <row r="26" spans="1:9" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="193">
         <v>0.15</v>
       </c>
-      <c r="B26" s="223"/>
+      <c r="B26" s="194"/>
       <c r="C26" s="126">
         <f>MROUND(Input!C26,0.01)</f>
         <v>48.800000000000004</v>
@@ -4739,11 +4739,11 @@
       <c r="H26" s="78"/>
       <c r="I26" s="78"/>
     </row>
-    <row r="27" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="203">
+    <row r="27" spans="1:9" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="215">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="B27" s="204"/>
+      <c r="B27" s="216"/>
       <c r="C27" s="126">
         <f>MROUND(Input!C27,0.01)</f>
         <v>36.800000000000004</v>
@@ -4767,11 +4767,11 @@
       <c r="H27" s="78"/>
       <c r="I27" s="78"/>
     </row>
-    <row r="28" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="203" t="s">
+    <row r="28" spans="1:9" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="215" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="204"/>
+      <c r="B28" s="216"/>
       <c r="C28" s="126">
         <f>MROUND(Input!C28,0.01)</f>
         <v>9.4</v>
@@ -4786,11 +4786,11 @@
       <c r="H28" s="78"/>
       <c r="I28" s="78"/>
     </row>
-    <row r="29" spans="1:9" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="205" t="s">
+    <row r="29" spans="1:9" ht="14.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="217" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="206"/>
+      <c r="B29" s="218"/>
       <c r="C29" s="92">
         <f>Input!C29</f>
         <v>100</v>
@@ -4802,7 +4802,7 @@
       <c r="H29" s="29"/>
       <c r="I29" s="78"/>
     </row>
-    <row r="30" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="32"/>
       <c r="B30" s="32"/>
       <c r="C30" s="32"/>
@@ -4813,7 +4813,7 @@
       <c r="H30" s="29"/>
       <c r="I30" s="83"/>
     </row>
-    <row r="31" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="32"/>
       <c r="B31" s="32"/>
       <c r="C31" s="32"/>
@@ -4824,26 +4824,26 @@
       <c r="H31" s="29"/>
       <c r="I31" s="78"/>
     </row>
-    <row r="32" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I32" s="78"/>
     </row>
-    <row r="33" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I33" s="78"/>
     </row>
-    <row r="34" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I34" s="78"/>
     </row>
-    <row r="35" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="192" t="s">
+    <row r="35" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="205" t="s">
         <v>66</v>
       </c>
-      <c r="B44" s="193"/>
+      <c r="B44" s="206"/>
       <c r="C44" s="144" t="str">
         <f>Input!C30</f>
         <v>0.076 mm</v>
@@ -4863,7 +4863,7 @@
         <v>0.158 mm</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="14" x14ac:dyDescent="0.3">
       <c r="A45" s="84" t="s">
         <v>24</v>
       </c>
@@ -4885,13 +4885,13 @@
       <c r="F46" s="84"/>
       <c r="H46" s="85"/>
     </row>
-    <row r="47" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C47" s="85"/>
       <c r="D47" s="85"/>
       <c r="F47" s="85"/>
       <c r="H47" s="85"/>
     </row>
-    <row r="48" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="85"/>
       <c r="B48" s="85"/>
       <c r="C48" s="85"/>
@@ -4927,7 +4927,7 @@
       </c>
       <c r="H50" s="85"/>
     </row>
-    <row r="51" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" ht="14" x14ac:dyDescent="0.3">
       <c r="A51" s="84" t="str">
         <f>Input!A38</f>
         <v>Department of Civil Engineering</v>
@@ -4940,7 +4940,7 @@
         <v>Department of Civil Engineering</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" ht="14" x14ac:dyDescent="0.3">
       <c r="A52" s="84" t="str">
         <f>Input!A39</f>
         <v>BUET, Dhaka-1000, Bangladesh</v>
@@ -4955,23 +4955,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="J12:P12"/>
     <mergeCell ref="A44:B44"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="A1:G1"/>
@@ -4988,6 +4971,23 @@
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A21:B21"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
   </mergeCells>
   <pageMargins left="1.1000000000000001" right="0.75" top="0.45" bottom="0.5" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="91" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
